--- a/src/test/resources/TestCases/TestData.xlsx
+++ b/src/test/resources/TestCases/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>This is first sentence</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Praline and Cream</t>
+  </si>
+  <si>
+    <t>Good Icecream</t>
+  </si>
+  <si>
+    <t>Good icecream</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -423,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -498,6 +507,20 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
